--- a/import_template/guidelines/Import Attendance Adjustment Guideline.xlsx
+++ b/import_template/guidelines/Import Attendance Adjustment Guideline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Worknest\import_template\guidelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278CB1CB-5D64-4B14-9768-7A93AC42A720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E7DCAD-9BA5-4A34-9FEF-88771AEC945E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{5EB2ECFB-FF2E-4E97-A1F9-9DADB55E9B45}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{5EB2ECFB-FF2E-4E97-A1F9-9DADB55E9B45}"/>
   </bookViews>
   <sheets>
     <sheet name="Import Attendance Guideline" sheetId="1" r:id="rId1"/>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D86087-82FB-46F5-B0C7-F4F9CF2E2675}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,7 +1200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5052B8E4-2C96-4091-903E-43F5A3C15A8A}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
